--- a/biology/Médecine/Traceur_(chimie)/Traceur_(chimie).xlsx
+++ b/biology/Médecine/Traceur_(chimie)/Traceur_(chimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un traceur est un élément ou un composé chimique, identifiable aisément par des méthodes physico-chimiques.
 Le traçage est l'utilisation d'un traceur pour suivre les déplacements de matières dans une réaction chimique ou dans l'environnement.
@@ -513,7 +525,9 @@
           <t>Différents types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On peut distinguer différents traceurs selon leur nature, leur origine, leur réactivité, qui se traduisent par autant d'utilisations différentes (chimie, géologie, médecine, mécanique, etc.) :
 Formule :
@@ -558,7 +572,9 @@
           <t>Exemples d'utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La rhodamine WT est un traceur artificiel extrinsèque fluorescent interagissant peu avec l'eau, les substances dissoutes et les matériaux aquifères, utilisé pour suivre le trajet de l'eau dans le sol en hydrogéologie.
 L'oxygène 18 (18O) est un traceur isotopique, intrinsèque de l'eau, présent naturellement dans l'environnement et utilisé notamment en paléoclimatologie.
